--- a/monitor_xlsx/20260130.xlsx
+++ b/monitor_xlsx/20260130.xlsx
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>None%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -787,13 +787,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16304口</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10841口</t>
+          <t>None口</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>131.55%</t>
+          <t>None%</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10841口</t>
+          <t>None口</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,13 @@
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1159,6 +1166,41 @@
           <t>籌碼評價</t>
         </is>
       </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>買賣券商差</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼集中度5D(%)</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>借券賣出餘額</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>短回補天數</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP20D</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP乖離(%)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1184,7 +1226,7 @@
         <v>-63741</v>
       </c>
       <c r="G4" t="n">
-        <v>-21661</v>
+        <v>-19014</v>
       </c>
       <c r="H4" t="n">
         <v>1640</v>
@@ -1212,6 +1254,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="R4" t="n">
+        <v>116023000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>71.37</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1228,10 +1293,10 @@
         <v>2332</v>
       </c>
       <c r="G5" t="n">
-        <v>-192</v>
+        <v>-184</v>
       </c>
       <c r="I5" t="n">
-        <v>-90</v>
+        <v>-130</v>
       </c>
       <c r="J5" t="n">
         <v>10305</v>
@@ -1250,6 +1315,29 @@
           <t>主力積極賣出</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>-24</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1551000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T5" t="n">
+        <v>116.69</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1275,13 +1363,13 @@
         <v>111</v>
       </c>
       <c r="G6" t="n">
-        <v>509</v>
+        <v>1257</v>
       </c>
       <c r="H6" t="n">
         <v>-38</v>
       </c>
       <c r="I6" t="n">
-        <v>-280</v>
+        <v>-538</v>
       </c>
       <c r="J6" t="n">
         <v>175</v>
@@ -1303,6 +1391,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3661000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T6" t="n">
+        <v>924.52</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1328,13 +1439,13 @@
         <v>10720</v>
       </c>
       <c r="G7" t="n">
-        <v>29290</v>
+        <v>32640</v>
       </c>
       <c r="H7" t="n">
         <v>4766</v>
       </c>
       <c r="I7" t="n">
-        <v>13508</v>
+        <v>15618</v>
       </c>
       <c r="J7" t="n">
         <v>5029</v>
@@ -1356,6 +1467,29 @@
           <t>偏多</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R7" t="n">
+        <v>172248918</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T7" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1381,13 +1515,13 @@
         <v>-349</v>
       </c>
       <c r="G8" t="n">
-        <v>-1235</v>
+        <v>-3777</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>887</v>
+        <v>1095</v>
       </c>
       <c r="J8" t="n">
         <v>749</v>
@@ -1409,6 +1543,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2170680</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1130.93</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1434,13 +1591,13 @@
         <v>-13718</v>
       </c>
       <c r="G9" t="n">
-        <v>870</v>
+        <v>-3136</v>
       </c>
       <c r="H9" t="n">
         <v>450</v>
       </c>
       <c r="I9" t="n">
-        <v>3758</v>
+        <v>3359</v>
       </c>
       <c r="J9" t="n">
         <v>537</v>
@@ -1459,7 +1616,30 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>偏多</t>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1550680</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1726.08</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>
@@ -1487,13 +1667,13 @@
         <v>-18725</v>
       </c>
       <c r="G10" t="n">
-        <v>-29082</v>
+        <v>-29238</v>
       </c>
       <c r="H10" t="n">
         <v>3676</v>
       </c>
       <c r="I10" t="n">
-        <v>20486</v>
+        <v>20282</v>
       </c>
       <c r="J10" t="n">
         <v>2104</v>
@@ -1515,6 +1695,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>-16</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28385000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T10" t="n">
+        <v>110.87</v>
+      </c>
+      <c r="U10" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1540,13 +1743,13 @@
         <v>-276</v>
       </c>
       <c r="G11" t="n">
-        <v>2468</v>
+        <v>2880</v>
       </c>
       <c r="H11" t="n">
         <v>-36</v>
       </c>
       <c r="I11" t="n">
-        <v>-473</v>
+        <v>-704</v>
       </c>
       <c r="J11" t="n">
         <v>111</v>
@@ -1568,6 +1771,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2252528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1666.9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1593,13 +1819,13 @@
         <v>-762</v>
       </c>
       <c r="G12" t="n">
-        <v>-916</v>
+        <v>-882</v>
       </c>
       <c r="H12" t="n">
         <v>-1</v>
       </c>
       <c r="I12" t="n">
-        <v>-156</v>
+        <v>-155</v>
       </c>
       <c r="J12" t="n">
         <v>107</v>
@@ -1621,6 +1847,29 @@
           <t>主力積極賣出</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>-21</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5046503</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3473.09</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1646,13 +1895,13 @@
         <v>-1287</v>
       </c>
       <c r="G13" t="n">
-        <v>8195</v>
+        <v>4579</v>
       </c>
       <c r="H13" t="n">
         <v>1301</v>
       </c>
       <c r="I13" t="n">
-        <v>-927</v>
+        <v>-1046</v>
       </c>
       <c r="J13" t="n">
         <v>779</v>
@@ -1674,6 +1923,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19168945</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T13" t="n">
+        <v>169.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1699,13 +1971,13 @@
         <v>847</v>
       </c>
       <c r="G14" t="n">
-        <v>3111</v>
+        <v>2360</v>
       </c>
       <c r="H14" t="n">
         <v>-203</v>
       </c>
       <c r="I14" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="J14" t="n">
         <v>104</v>
@@ -1727,6 +1999,29 @@
           <t>偏多</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>-48</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2278000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1413.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1752,13 +2047,13 @@
         <v>542</v>
       </c>
       <c r="G15" t="n">
-        <v>930</v>
+        <v>669</v>
       </c>
       <c r="H15" t="n">
         <v>-43</v>
       </c>
       <c r="I15" t="n">
-        <v>1075</v>
+        <v>1153</v>
       </c>
       <c r="J15" t="n">
         <v>148</v>
@@ -1780,6 +2075,29 @@
           <t>主力積極買進</t>
         </is>
       </c>
+      <c r="P15" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2469400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="T15" t="n">
+        <v>764.27</v>
+      </c>
+      <c r="U15" t="n">
+        <v>43.27</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1805,13 +2123,13 @@
         <v>-710</v>
       </c>
       <c r="G16" t="n">
-        <v>-7327</v>
+        <v>-8949</v>
       </c>
       <c r="H16" t="n">
         <v>64</v>
       </c>
       <c r="I16" t="n">
-        <v>1084</v>
+        <v>1042</v>
       </c>
       <c r="J16" t="n">
         <v>152</v>
@@ -1833,6 +2151,29 @@
           <t>偏空</t>
         </is>
       </c>
+      <c r="P16" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7587640</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T16" t="n">
+        <v>333.49</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1858,13 +2199,13 @@
         <v>647</v>
       </c>
       <c r="G17" t="n">
-        <v>-838</v>
+        <v>-331</v>
       </c>
       <c r="H17" t="n">
         <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>410</v>
+        <v>755</v>
       </c>
       <c r="J17" t="n">
         <v>-5</v>
@@ -1886,6 +2227,29 @@
           <t>中性</t>
         </is>
       </c>
+      <c r="P17" t="n">
+        <v>-44</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2341000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T17" t="n">
+        <v>138.88</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1911,13 +2275,13 @@
         <v>-1168</v>
       </c>
       <c r="G18" t="n">
-        <v>2475</v>
+        <v>888</v>
       </c>
       <c r="H18" t="n">
         <v>30</v>
       </c>
       <c r="I18" t="n">
-        <v>5188</v>
+        <v>5260</v>
       </c>
       <c r="J18" t="n">
         <v>-323</v>
@@ -1937,6 +2301,105 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>主力積極買進</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="7" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11563993</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>252</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>76967</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>-5336</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3257</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1078</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4327</v>
+      </c>
+      <c r="J19" t="n">
+        <v>523</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31289</v>
+      </c>
+      <c r="L19" t="n">
+        <v>154669</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-113692</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7265826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T19" t="n">
+        <v>201.62</v>
+      </c>
+      <c r="U19" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>partial</t>
         </is>
       </c>
     </row>

--- a/monitor_xlsx/20260130.xlsx
+++ b/monitor_xlsx/20260130.xlsx
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>177.55%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None%</t>
+          <t>177.55%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -787,13 +787,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>16304口</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None口</t>
+          <t>10841口</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -829,12 +829,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-22.97億</t>
+          <t>-23.6億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-459.49億</t>
+          <t>-471.91億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-22.97億</t>
+          <t>-23.6億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-459.49億</t>
+          <t>-471.91億</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>None%</t>
+          <t>177.55%</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>None口</t>
+          <t>10841口</t>
         </is>
       </c>
     </row>
@@ -2035,13 +2035,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1095</v>
+        <v>1135</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>9.609999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="E15" t="n">
-        <v>903</v>
+        <v>700</v>
       </c>
       <c r="F15" s="6" t="n">
         <v>542</v>
@@ -2085,13 +2085,13 @@
         <v>2469400</v>
       </c>
       <c r="S15" t="n">
-        <v>2.73</v>
+        <v>3.53</v>
       </c>
       <c r="T15" t="n">
         <v>764.27</v>
       </c>
       <c r="U15" t="n">
-        <v>43.27</v>
+        <v>48.51</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>-5.59</v>
+        <v>333</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>6.56</v>
       </c>
       <c r="E16" t="n">
-        <v>23943</v>
+        <v>19216</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>-710</v>
@@ -2161,13 +2161,13 @@
         <v>7587640</v>
       </c>
       <c r="S16" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="T16" t="n">
         <v>333.49</v>
       </c>
       <c r="U16" t="n">
-        <v>-6.29</v>
+        <v>-0.15</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>139.5</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="E17" t="n">
-        <v>1285</v>
+        <v>973</v>
       </c>
       <c r="F17" s="6" t="n">
         <v>647</v>
@@ -2237,13 +2237,13 @@
         <v>2341000</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="T17" t="n">
         <v>138.88</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.07</v>
+        <v>0.45</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>314</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>-1.72</v>
+        <v>328</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>4.46</v>
       </c>
       <c r="E18" t="n">
-        <v>29576</v>
+        <v>20787</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>-1168</v>
@@ -2313,13 +2313,13 @@
         <v>11563993</v>
       </c>
       <c r="S18" t="n">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T18" t="n">
         <v>302.1</v>
       </c>
       <c r="U18" t="n">
-        <v>3.94</v>
+        <v>8.57</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
